--- a/Data Files/ECR/TestDataECR.xlsx
+++ b/Data Files/ECR/TestDataECR.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DAUIAutomation\Data Files\ECR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DA\Data Files\ECR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C2DD7B-EF72-4FAA-BDDE-7ABBEA89D408}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="66">
   <si>
     <t>pogoa@pegasystems.com</t>
   </si>
@@ -98,82 +104,146 @@
     <t>OPS</t>
   </si>
   <si>
-    <t>\Data Files\ECR\PCR_1.xlsm</t>
-  </si>
-  <si>
-    <t>\Data Files\ECR\PCR_2.xlsm</t>
-  </si>
-  <si>
-    <t>\Data Files\ECR\PCR_3.xlsm</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>ENGID</t>
-  </si>
-  <si>
-    <t>PROJ ID</t>
-  </si>
-  <si>
-    <t>PegaServiceValue</t>
-  </si>
-  <si>
-    <t>ECR-25Apr2018-12</t>
-  </si>
-  <si>
-    <t>ECR-25Apr2018-13</t>
-  </si>
-  <si>
-    <t>ECR-25Apr2018-14</t>
-  </si>
-  <si>
-    <t>ECR-25Apr2018-15</t>
-  </si>
-  <si>
-    <t>ECR-25Apr2018-16</t>
-  </si>
-  <si>
-    <t>martw@pegasystems.com</t>
-  </si>
-  <si>
-    <t>ECR-03May2018-9</t>
-  </si>
-  <si>
-    <t>ECR-09Apr2018-19</t>
-  </si>
-  <si>
     <t>marsa@pegasystems.com</t>
   </si>
   <si>
-    <t>ECR-03Jul2018-5</t>
-  </si>
-  <si>
-    <t>ECR-03Jul2018-7</t>
-  </si>
-  <si>
-    <t>ECR-03Jul2018-8</t>
-  </si>
-  <si>
-    <t>ECR-06Jul2018-1</t>
-  </si>
-  <si>
-    <t>ECR-06Jul2018-5</t>
-  </si>
-  <si>
-    <t>ECR-09Jul2018-4</t>
-  </si>
-  <si>
-    <t>ECR-09Jul2018-5</t>
-  </si>
-  <si>
-    <t>ECR-27Aug2018-10</t>
+    <t>ellia@pegasystems.com</t>
+  </si>
+  <si>
+    <t>\Data Files\ECR\ECR_LITE_CASETYPE_NO.xlsm</t>
+  </si>
+  <si>
+    <t>\Data Files\ECR\ECR_LITE_CASETYPE_YES.xlsm</t>
+  </si>
+  <si>
+    <t>\Data Files\ECR\ECR_SPAPPROVAL.xlsm</t>
+  </si>
+  <si>
+    <t>\Data Files\ECR\APAC_JAPAN_JPY.xlsm</t>
+  </si>
+  <si>
+    <t>kausd@pegasystems.com</t>
+  </si>
+  <si>
+    <t>watan@pegasystems.com</t>
+  </si>
+  <si>
+    <t>HITACHI</t>
+  </si>
+  <si>
+    <t>HITACH</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Accept</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
+    <t>Test Scenario Description</t>
+  </si>
+  <si>
+    <t>Contract Options</t>
+  </si>
+  <si>
+    <t>Create Contract</t>
+  </si>
+  <si>
+    <t>contract</t>
+  </si>
+  <si>
+    <t>Resolve - No Contract</t>
+  </si>
+  <si>
+    <t>DispositionReason</t>
+  </si>
+  <si>
+    <t>Won</t>
+  </si>
+  <si>
+    <t>Lost</t>
+  </si>
+  <si>
+    <t>Qualified Out</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
+  </si>
+  <si>
+    <t>Suspended</t>
+  </si>
+  <si>
+    <t>Disposition Options</t>
+  </si>
+  <si>
+    <t>ECR Lite
+Eng=New
+Reference Sizing=true</t>
+  </si>
+  <si>
+    <t>ECR Lite
+Eng=New
+Reference Sizing=false</t>
+  </si>
+  <si>
+    <t>ECR with Meeting
+All Reject Path</t>
+  </si>
+  <si>
+    <t>ECR Lite
+All Reject Path</t>
+  </si>
+  <si>
+    <t>ECR Lite
+Eng=New
+Special Approval</t>
+  </si>
+  <si>
+    <t>ECR Lite
+Eng=New
+No Special Approval</t>
+  </si>
+  <si>
+    <t>ClinicOutcome</t>
+  </si>
+  <si>
+    <t>Approved: Non-Financial Updates Required</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Withdrawn</t>
+  </si>
+  <si>
+    <t>WOSTATUS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ECR-11Oct2018-1</t>
+  </si>
+  <si>
+    <t>ECR-11Oct2018-3</t>
+  </si>
+  <si>
+    <t>ECR-11Oct2018-4</t>
+  </si>
+  <si>
+    <t>ECR-11Oct2018-5</t>
+  </si>
+  <si>
+    <t>ECR-15Oct2018-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="5">
     <font>
@@ -216,7 +286,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +296,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -281,7 +357,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -306,6 +382,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
@@ -588,30 +667,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="11" width="10.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
-    <col min="3" max="6" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="16.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="30.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="32.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="42.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="6" customFormat="1" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
@@ -619,376 +709,469 @@
         <v>7</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="Z1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="B2" s="4"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2" t="s">
+      <c r="D2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="12" t="s">
+      <c r="N2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>0</v>
+      <c r="AC2" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2" t="s">
+      <c r="D3" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="13" t="s">
+      <c r="O3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>0</v>
+      <c r="AB3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" t="s">
         <v>15</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>19</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>0</v>
       </c>
+      <c r="Z4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="D5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>15</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>19</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>0</v>
       </c>
+      <c r="Z5" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="D6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>14</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>15</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>19</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>0</v>
       </c>
+      <c r="Z6" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="D7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>14</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>15</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>19</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="wrong" sqref="AB2:AB6" xr:uid="{8458B35B-1E51-4581-AA24-950C9D2A589E}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="wrong" sqref="F2:F7" xr:uid="{11A77DCF-43CF-4424-8166-090ABCB3F9E1}">
+      <formula1>$AB$2:$AB$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="wrong" sqref="E3:E7" xr:uid="{D35DA32F-CD2E-4999-BF15-9F2D4173A20A}">
+      <formula1>$AA$2:$AA$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="wrong" sqref="E2" xr:uid="{581D4D1D-6561-496B-A81E-288DEDCCC8A4}">
+      <formula1>$AA$2:$AA$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="wrong" sqref="H2:H7" xr:uid="{688D90CD-7444-44F2-9BAF-C8933521F4EA}">
+      <formula1>$Z$2:$Z$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="wrong" sqref="G2:G7" xr:uid="{18C757B0-48FF-44B7-8100-5ABA15A832D2}">
+      <formula1>$AC$2:$AC$5</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="L3" r:id="rId3"/>
-    <hyperlink ref="L2" r:id="rId4"/>
-    <hyperlink ref="K2" r:id="rId5"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="N2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="N3" r:id="rId5" xr:uid="{123D947A-A317-48E5-B83E-FD69C02BA8EA}"/>
+    <hyperlink ref="L4" r:id="rId6" xr:uid="{E73BB395-8600-407A-8376-1A1E06375028}"/>
+    <hyperlink ref="O4" r:id="rId7" xr:uid="{81E68F46-2618-42CB-BC79-35E471F1DDC0}"/>
+    <hyperlink ref="N4" r:id="rId8" xr:uid="{8633A762-6B32-48AA-85FA-1F9D2F3057E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>